--- a/Offline/BusinessManagement/Ops_Backup/DailyStatusTracker.xlsx
+++ b/Offline/BusinessManagement/Ops_Backup/DailyStatusTracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00255730-0E44-4F95-8242-87E68E006D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9624BB00-AD96-4D2A-9959-AEB47A8BD5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OpsTracker" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
   <si>
     <t>Item Number</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>Conduct Internal Assessment Test for existing Students</t>
+  </si>
+  <si>
+    <t>Java Student Batch creation left</t>
+  </si>
+  <si>
+    <t>Debasish Sir left</t>
   </si>
 </sst>
 </file>
@@ -587,11 +596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -831,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -845,10 +854,10 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -862,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -876,7 +885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -890,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -904,7 +913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -918,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -932,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -943,10 +952,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -959,8 +968,11 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -973,8 +985,11 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -987,8 +1002,11 @@
       <c r="D26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1027,6 +1045,20 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1267,9 +1299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3518496C-1052-4545-B0C2-460165B8A9A2}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
